--- a/output/config.local.json/result.xlsx
+++ b/output/config.local.json/result.xlsx
@@ -541,7 +541,7 @@
         <v>940</v>
       </c>
       <c r="G2" t="n">
-        <v>34.9832526981764</v>
+        <v>33.42816500711238</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>14.8864905098623</v>
+        <v>14.22475106685633</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         <v>400</v>
       </c>
       <c r="G4" t="n">
-        <v>14.8864905098623</v>
+        <v>14.22475106685633</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>14.8864905098623</v>
+        <v>14.22475106685633</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>190</v>
       </c>
       <c r="G6" t="n">
-        <v>7.071082992184592</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74916263490882</v>
+        <v>1.671408250355619</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -872,39 +872,34 @@
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9676218831410495</v>
+        <v>1.422475106685633</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>configer.h:183(logic::Configer::Configer)</t>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023/02/27</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fei.ze</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>15237</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MESSAGE: set default config RVO_TIME_STEP:0.1f  ( - )</t>
+          <t>MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=412, dbterm=13</t>
         </is>
       </c>
     </row>
@@ -931,19 +926,19 @@
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9676218831410495</v>
+        <v>1.422475106685633</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[regiterCustomTypesMethod]     C:\__WorldX_P4\server\Scripts/GameServer\ServerUtils.lua:42</t>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2022/12/12</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -953,12 +948,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>147014</t>
+          <t>6160</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MESSAGE: BaseProperty.lua regiterCustomTypesMethod</t>
+          <t>MESSAGE: copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
         </is>
       </c>
     </row>
@@ -985,39 +980,34 @@
         <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0.744324525493115</v>
+        <v>1.422475106685633</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>configer.h:314(logic::Configer::add)</t>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2022/11/01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>fei.ze</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>878</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MESSAGE: config:RESOURCE_MACHINE_LOAD_CHECK_COUNT override, 100 -&gt; 100</t>
+          <t>MESSAGE: saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
         </is>
       </c>
     </row>
@@ -1044,14 +1034,14 @@
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4093784890212133</v>
+        <v>1.422475106685633</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1071,7 +1061,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=412, dbterm=13</t>
+          <t>MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=412, dbterm=13</t>
         </is>
       </c>
     </row>
@@ -1098,34 +1088,39 @@
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4093784890212133</v>
+        <v>0.9246088193456615</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+          <t>configer.h:183(logic::Configer::Configer)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2022/12/12</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>sinong.chen</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MESSAGE: copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+          <t>MESSAGE: set default config RVO_TIME_STEP:0.1f  ( - )</t>
         </is>
       </c>
     </row>
@@ -1152,34 +1147,34 @@
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4093784890212133</v>
+        <v>0.9246088193456615</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+          <t>[regiterCustomTypesMethod]     C:\__WorldX_P4\server\Scripts/GameServer\ServerUtils.lua:42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2022/11/01</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>sinong.chen</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>147014</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MESSAGE: saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+          <t>MESSAGE: BaseProperty.lua regiterCustomTypesMethod</t>
         </is>
       </c>
     </row>
@@ -1206,34 +1201,39 @@
         <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4093784890212133</v>
+        <v>0.7112375533428165</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+          <t>configer.h:314(logic::Configer::add)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2023/02/27</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MESSAGE: Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=412, dbterm=13</t>
+          <t>MESSAGE: config:RESOURCE_MACHINE_LOAD_CHECK_COUNT override, 100 -&gt; 100</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1260,14 @@
         <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2605135839225903</v>
+        <v>0.4623044096728308</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[_addProcessInfo]     ..._WorldX_P4\server\Engine/Core\Net\Etcd\EtcdProcessor.lua:894</t>
+          <t>[checkIntervalFullGc]     C:\__WorldX_P4\server\Engine/Core\Server\Memory\Gc.lua:42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1277,17 +1277,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>xin.chu</t>
+          <t>sinong.chen</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>219</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">MESSAGE: EtcdProcessor (8043077 table: 0x0d5414e8) add process (674d208b88e1249dcce9aa25,StatefulConfigService,28012) </t>
+          <t>MESSAGE: fullGc check got totalBytes 132675806</t>
         </is>
       </c>
     </row>
@@ -1317,35 +1317,35 @@
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2605135839225903</v>
+        <v>0.2489331436699858</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[onAddProcess]     C:\__WorldX_P4\server\Engine/Core\Server\EtcdGame.lua:356</t>
+          <t>[_addProcessInfo]     ..._WorldX_P4\server\Engine/Core\Net\Etcd\EtcdProcessor.lua:894</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2022/10/18</t>
+          <t>2022/10/25</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>xiaotian.wen</t>
+          <t>xin.chu</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>322</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MESSAGE: EtcdGame (Class EtcdGame : 0x0d53e078, 8043077) onAddProcess ProcessInfo (Class ProcessInfo : 0x0ace20a8, 8043077, StatefulConfigService, 674d208b88e1249dcce9aa25)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="60" r="17">
+          <t xml:space="preserve">MESSAGE: EtcdProcessor (8043077 table: 0x0d5414e8) add process (674d208b88e1249dcce9aa25,StatefulConfigService,28012) </t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17">
       <c r="A17" t="inlineStr">
         <is>
           <t>game</t>
@@ -1371,29 +1371,83 @@
         <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2605135839225903</v>
+        <v>0.2489331436699858</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>[onAddProcess]     C:\__WorldX_P4\server\Engine/Core\Server\EtcdGame.lua:356</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2022/10/18</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>xiaotian.wen</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>MESSAGE: EtcdGame (Class EtcdGame : 0x0d53e078, 8043077) onAddProcess ProcessInfo (Class ProcessInfo : 0x0ace20a8, 8043077, StatefulConfigService, 674d208b88e1249dcce9aa25)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="60" r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2489331436699858</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>[_innerHandle]     C:\__WorldX_P4\server\Engine/Core\Server\GmHandler.lua:111</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>2023/07/04</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>sinong.chen</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>53776</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>MESSAGE: {oid, mid}: {8043077, getAllUids}, params {
   GMTYPE = 4,
@@ -1402,60 +1456,6 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2232973576479345</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>[_startWatchCallback]     ..._WorldX_P4\server\Engine/Core\Net\Etcd\EtcdProcessor.lua:636</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2022/10/25</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>xin.chu</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>MESSAGE: EtcdProcessor (8043077 table: 0x0d5414e8) watch 1 got info changed</t>
-        </is>
-      </c>
-    </row>
     <row customHeight="1" ht="15" r="19">
       <c r="A19" t="inlineStr">
         <is>
@@ -1482,35 +1482,35 @@
         <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2232973576479345</v>
+        <v>0.213371266002845</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[createChunk]     ...rver\Engine/Core\Server\MicroService\LuaServiceShard.lua:523</t>
+          <t>[_startWatchCallback]     ..._WorldX_P4\server\Engine/Core\Net\Etcd\EtcdProcessor.lua:636</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2023/02/27</t>
+          <t>2022/10/25</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fei.ze</t>
+          <t>xin.chu</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>322</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MESSAGE: Shard 8043077-game0, Service [serverEntity (TeamService, Z00gl78OlebPX2fD)] create chunk 1 for version 1</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="20">
+          <t>MESSAGE: EtcdProcessor (8043077 table: 0x0d5414e8) watch 1 got info changed</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20">
       <c r="A20" t="inlineStr">
         <is>
           <t>game</t>
@@ -1536,29 +1536,83 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2232973576479345</v>
+        <v>0.213371266002845</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>[createChunk]     ...rver\Engine/Core\Server\MicroService\LuaServiceShard.lua:523</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023/02/27</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fei.ze</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15237</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MESSAGE: Shard 8043077-game0, Service [serverEntity (TeamService, Z00gl78OlebPX2fD)] create chunk 1 for version 1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.213371266002845</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>[dropToPlayer]     C:\__WorldX_P4\server\Scripts/GameServer\DropGenerator.lua:184</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>2024/06/03</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>gongzhen.liu</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>195658</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>MESSAGE: dropToPlayer dropId:10, res:{
   [1006] = { 0, 0, 10 }
@@ -1566,60 +1620,6 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CALLER</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2232973576479345</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[petHandbookCompleteTarget]     ...s\SpaceEntities\PlayerComponent\PetHandbookComponent.lua:205</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>gongzhen.liu</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>241490</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>MESSAGE: petHandBook CompleteTarget	1001100	2	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
-        </is>
-      </c>
-    </row>
     <row customHeight="1" ht="15" r="22">
       <c r="A22" t="inlineStr">
         <is>
@@ -1646,16 +1646,16 @@
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2232973576479345</v>
+        <v>0.213371266002845</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[completeCustomTrigger]     ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:301</t>
+          <t>[petHandbookCompleteTarget]     ...s\SpaceEntities\PlayerComponent\PetHandbookComponent.lua:205</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>219272</t>
+          <t>241490</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MESSAGE: completeCustomTrigger, customId=1001122, newCount=1, maxCount=1	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+          <t>MESSAGE: petHandBook CompleteTarget	1001100	2	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
         </is>
       </c>
     </row>
@@ -1697,39 +1697,34 @@
         <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1860811313732788</v>
+        <v>0.213371266002845</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>eventloop.cpp:29(phonestcore::EventLoop::EventLoop)</t>
+          <t>[completeCustomTrigger]     ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:301</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>gongzhen.liu</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>219272</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MESSAGE: 0x5b3610</t>
+          <t>MESSAGE: completeCustomTrigger, customId=1001122, newCount=1, maxCount=1	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
         </is>
       </c>
     </row>
@@ -1756,34 +1751,39 @@
         <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.148864905098623</v>
+        <v>0.1778093883357041</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[checkIntervalFullGc]     C:\__WorldX_P4\server\Engine/Core\Server\Memory\Gc.lua:42</t>
+          <t>eventloop.cpp:29(phonestcore::EventLoop::EventLoop)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2022/10/25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>sinong.chen</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>MESSAGE: fullGc check got totalBytes 132675806</t>
+          <t>MESSAGE: 0x5b3610</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1116486788239672</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
